--- a/ProcesosDesarrollados.xlsx
+++ b/ProcesosDesarrollados.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krats\Documents\Git\Acceso-a-Datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3730702-508C-48FF-A0C9-51688E0CB123}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="14">
   <si>
     <t>Proceso</t>
   </si>
@@ -64,11 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -77,22 +79,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -100,7 +94,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,20 +103,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579D1C"/>
-        <bgColor rgb="FF808000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
         <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC00"/>
-        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -137,9 +119,27 @@
         <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -147,74 +147,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Sin título1" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Sin título2" xfId="21" builtinId="54" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-000B-0000-0000-000036000000}"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -229,21 +206,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -302,30 +266,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.5748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="29"/>
+    <col min="2" max="2" width="19.5703125" style="1"/>
+    <col min="3" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -333,154 +605,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>sí</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>no</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5748987854251"/>
+    <col min="1" max="1025" width="10.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5748987854251"/>
+    <col min="1" max="1025" width="10.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/ProcesosDesarrollados.xlsx
+++ b/ProcesosDesarrollados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krats\Documents\Git\Acceso-a-Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3730702-508C-48FF-A0C9-51688E0CB123}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587964B9-BAF7-4189-A9DB-3A5271D7A505}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Proceso</t>
   </si>
@@ -94,7 +94,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,12 +131,6 @@
         <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -151,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,9 +161,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -587,7 +578,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +600,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -617,7 +608,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -633,7 +624,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -641,7 +632,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
